--- a/data/game001/paytables.xlsx
+++ b/data/game001/paytables.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>Code</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>MYSTERY</t>
+  </si>
+  <si>
+    <t>NEW_COLLECTOR</t>
+  </si>
+  <si>
+    <t>COIN</t>
+  </si>
+  <si>
+    <t>MULTIPLIER</t>
   </si>
 </sst>
 </file>
@@ -118,7 +127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -133,28 +142,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -163,16 +172,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -202,7 +211,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -214,10 +223,10 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -234,16 +243,16 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -264,7 +273,7 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -287,8 +296,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffa5a5a5"/>
     </indexedColors>
   </colors>
@@ -440,9 +449,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -522,7 +531,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -550,10 +559,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -809,9 +818,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1099,7 +1108,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1127,10 +1136,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1381,13 +1390,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.16667" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="6.17188" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8516" style="1" customWidth="1"/>
+    <col min="3" max="5" width="2.67188" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.67188" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6.17188" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1664,6 +1677,75 @@
         <v>0</v>
       </c>
       <c r="G12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="14" customHeight="1">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="14" customHeight="1">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="14" customHeight="1">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
         <v>0</v>
       </c>
     </row>

--- a/data/game001/paytables.xlsx
+++ b/data/game001/paytables.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Code</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>MULTIPLIER</t>
+  </si>
+  <si>
+    <t>LIGHTNING</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1746,6 +1749,29 @@
         <v>0</v>
       </c>
       <c r="G15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="14" customHeight="1">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
         <v>0</v>
       </c>
     </row>
